--- a/Results.xlsx
+++ b/Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Documents\GitHub\Entity-Classification-AnyBURL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FBA460-89D9-4732-B3DB-574C7E356FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A7F542-C6DA-41DD-A66A-132E58922DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{057A9F88-893E-4945-82DF-75C0F650D870}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{057A9F88-893E-4945-82DF-75C0F650D870}"/>
   </bookViews>
   <sheets>
     <sheet name="Accuracy Results" sheetId="1" r:id="rId1"/>
@@ -360,11 +360,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -380,10 +378,8 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -407,33 +403,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -442,24 +411,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
@@ -483,6 +434,51 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -499,6 +495,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -875,8 +880,8 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView zoomScale="114" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -887,228 +892,228 @@
     <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="C1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="56" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C2" s="2"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="15"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C3" s="2"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="16"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="17">
+      <c r="B4" s="8"/>
+      <c r="C4" s="13">
         <v>0.99</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="14">
         <v>0.54901960800000005</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="15">
         <v>0.630434783</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="16">
         <v>0.66883116899999995</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="17">
+      <c r="B5" s="8"/>
+      <c r="C5" s="13">
         <v>1</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="14">
         <v>0.59330143499999999</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="15">
         <v>0.58695652200000004</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="16">
         <v>0.7</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="17">
+      <c r="B6" s="8"/>
+      <c r="C6" s="13">
         <v>1</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="14">
         <v>0.63546798000000004</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="15">
         <v>0.56521739100000001</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="16">
         <v>0.63066954600000003</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="17">
+      <c r="B7" s="8"/>
+      <c r="C7" s="13">
         <v>1</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="14">
         <v>0.59278350499999999</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="15">
         <v>0.69565217400000001</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="16">
         <v>0.62369337999999996</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="17">
+      <c r="B8" s="8"/>
+      <c r="C8" s="13">
         <v>1</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="14">
         <v>0.60591132999999997</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="15">
         <v>0.52173913000000005</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="3.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="23">
+      <c r="B10" s="8"/>
+      <c r="C10" s="19">
         <v>0.998</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="14">
         <f>(SUM(D4:D8) / 5)</f>
         <v>0.59529677159999994</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="15">
         <f>(SUM(E4:E8) / 5)</f>
         <v>0.6</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="16">
         <f>(SUM(F4:F7) / 4)</f>
         <v>0.65579852374999992</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="3.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="17">
+      <c r="B12" s="8"/>
+      <c r="C12" s="13">
         <v>0.81</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="14">
         <v>0.83</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="15">
         <v>0.75</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="19">
         <v>0.74</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="17">
+      <c r="B13" s="8"/>
+      <c r="C13" s="13">
         <v>0.9</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="19">
         <v>0.76</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="19">
         <v>0.77</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="16">
         <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="17">
+      <c r="B14" s="8"/>
+      <c r="C14" s="13">
         <v>0.88</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="14">
         <v>0.76</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="15">
         <v>0.69</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="16">
         <v>0.51</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="17">
+      <c r="B15" s="8"/>
+      <c r="C15" s="13">
         <v>0.9</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="14">
         <v>0.74</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="19">
         <v>0.77</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="16">
         <v>0.64</v>
       </c>
     </row>
@@ -1148,139 +1153,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C2" s="2"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="12"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C3" s="2"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="13"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="17">
+      <c r="B4" s="8"/>
+      <c r="C4" s="13">
         <v>0.95289999999999997</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="14">
         <v>0.99070000000000003</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="15">
         <v>0.99680000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="17">
+      <c r="B5" s="8"/>
+      <c r="C5" s="13">
         <v>0.99890000000000001</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="14">
         <v>0.91200000000000003</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="15">
         <v>0.97829999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="17">
+      <c r="B6" s="8"/>
+      <c r="C6" s="13">
         <v>0.97540000000000004</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="14">
         <v>0.94969999999999999</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="15">
         <v>0.98750000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="1.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
     </row>
     <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="24">
+      <c r="B8" s="8"/>
+      <c r="C8" s="33">
         <v>0.97099999999999997</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="35"/>
     </row>
     <row r="9" spans="1:5" ht="1.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
     </row>
     <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="27">
+      <c r="B10" s="8"/>
+      <c r="C10" s="36">
         <v>0.98599999999999999</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38"/>
     </row>
     <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="27">
+      <c r="B11" s="8"/>
+      <c r="C11" s="36">
         <v>0.98599999999999999</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
     </row>
     <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="30">
+      <c r="B12" s="8"/>
+      <c r="C12" s="39">
         <v>0.98799999999999999</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="32"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="41"/>
     </row>
     <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="30">
+      <c r="B13" s="8"/>
+      <c r="C13" s="39">
         <v>0.98799999999999999</v>
       </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="32"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="41"/>
     </row>
     <row r="21" ht="29.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" ht="28.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1342,164 +1347,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="25" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="44" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="25" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C3" s="2"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="6"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="17">
+      <c r="B4" s="8"/>
+      <c r="C4" s="13">
         <v>1</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="14">
         <v>1</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="15">
         <v>0.91669999999999996</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="27">
         <v>0.73329999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="17">
+      <c r="B5" s="8"/>
+      <c r="C5" s="13">
         <v>1</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="14">
         <v>0.88890000000000002</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="15">
         <v>0.89190000000000003</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="27">
         <v>0.84619999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="17">
+      <c r="B6" s="8"/>
+      <c r="C6" s="13">
         <v>1</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="14">
         <v>0.94120000000000004</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="15">
         <v>0.90410000000000001</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="27">
         <v>0.78569999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="1.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="43"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="24"/>
     </row>
     <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="36">
+      <c r="B8" s="8"/>
+      <c r="C8" s="42">
         <v>0.92020000000000002</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
     </row>
     <row r="9" spans="1:6" ht="1.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="42"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="23"/>
     </row>
     <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="38">
+      <c r="B10" s="8"/>
+      <c r="C10" s="44">
         <v>0.92600000000000005</v>
       </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
     </row>
     <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="40">
+      <c r="B11" s="8"/>
+      <c r="C11" s="46">
         <v>0.95499999999999996</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
     </row>
     <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="38">
+      <c r="B12" s="8"/>
+      <c r="C12" s="44">
         <v>0.93200000000000005</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
     </row>
     <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="38">
+      <c r="B13" s="8"/>
+      <c r="C13" s="44">
         <v>0.91900000000000004</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1536,190 +1541,190 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="0.44140625" customWidth="1"/>
     <col min="3" max="7" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A1"/>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="29" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A2"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="49"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="50"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="17">
+      <c r="B4" s="8"/>
+      <c r="C4" s="13">
         <v>0.92400000000000004</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="14">
         <v>0.94740000000000002</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="15">
         <v>0.83650000000000002</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="27">
         <v>0.88890000000000002</v>
       </c>
-      <c r="G4" s="51">
+      <c r="G4" s="32">
         <v>0.91180000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="17">
+      <c r="B5" s="8"/>
+      <c r="C5" s="13">
         <v>0.83599999999999997</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="14">
         <v>0.75</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="15">
         <v>0.97189999999999999</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="27">
         <v>0.5333</v>
       </c>
-      <c r="G5" s="51">
+      <c r="G5" s="32">
         <v>0.55359999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="17">
+      <c r="B6" s="8"/>
+      <c r="C6" s="13">
         <v>0.87780000000000002</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="14">
         <v>0.83720000000000006</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="15">
         <v>0.89329999999999998</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="27">
         <v>0.66669999999999996</v>
       </c>
-      <c r="G6" s="51">
+      <c r="G6" s="32">
         <v>0.68889999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="1.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
     </row>
     <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="56">
+      <c r="B8" s="8"/>
+      <c r="C8" s="52">
         <v>0.86870000000000003</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
     </row>
     <row r="9" spans="1:7" ht="1.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
     </row>
     <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="38">
+      <c r="B10" s="8"/>
+      <c r="C10" s="44">
         <v>0.80300000000000005</v>
       </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
     </row>
     <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="38">
+      <c r="B11" s="8"/>
+      <c r="C11" s="44">
         <v>0.79900000000000004</v>
       </c>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
     </row>
     <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="38">
+      <c r="B12" s="8"/>
+      <c r="C12" s="44">
         <v>0.80400000000000005</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
     </row>
     <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="38">
+      <c r="B13" s="8"/>
+      <c r="C13" s="44">
         <v>0.86799999999999999</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
     </row>
     <row r="14" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14"/>
@@ -2031,7 +2036,7 @@
   </sheetPr>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="146" workbookViewId="0">
+    <sheetView zoomScale="146" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -2044,118 +2049,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="21" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C2" s="2"/>
-      <c r="D2" s="5"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C3" s="2"/>
-      <c r="D3" s="4"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="17">
+      <c r="B4" s="8"/>
+      <c r="C4" s="13">
         <v>1</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="14">
         <v>0.65629999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="17">
+      <c r="B5" s="8"/>
+      <c r="C5" s="13">
         <v>0.35289999999999999</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="17">
+      <c r="B6" s="8"/>
+      <c r="C6" s="13">
         <v>0.52170000000000005</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="14">
         <v>0.79249999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="1.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="24">
+      <c r="B8" s="8"/>
+      <c r="C8" s="33">
         <v>0.67130000000000001</v>
       </c>
-      <c r="D8" s="25"/>
+      <c r="D8" s="34"/>
     </row>
     <row r="9" spans="1:4" ht="1.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
     </row>
     <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="27">
+      <c r="B10" s="8"/>
+      <c r="C10" s="36">
         <v>0.77600000000000002</v>
       </c>
-      <c r="D10" s="28"/>
+      <c r="D10" s="37"/>
     </row>
     <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="30">
+      <c r="B11" s="8"/>
+      <c r="C11" s="39">
         <v>0.79200000000000004</v>
       </c>
-      <c r="D11" s="31"/>
+      <c r="D11" s="40"/>
     </row>
     <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="27">
+      <c r="B12" s="8"/>
+      <c r="C12" s="36">
         <v>0.70699999999999996</v>
       </c>
-      <c r="D12" s="28"/>
+      <c r="D12" s="37"/>
     </row>
     <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="27">
+      <c r="B13" s="8"/>
+      <c r="C13" s="36">
         <v>0.78800000000000003</v>
       </c>
-      <c r="D13" s="28"/>
+      <c r="D13" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="5">
